--- a/data/teen_screen_time_mock_dataset.xlsx
+++ b/data/teen_screen_time_mock_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99a8324fc0445a7b/Documents/Back 2 Viz Basics/2025/Week 7 - Data Mockstar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\westwell\Documents\0.Workbooks\2.数据处理脚本\2.0.PythonScripts\2.9.streamlit\histogram-explorer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCBD9A9-673D-4D54-8D4C-898C5CBB79F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA2565-F3F8-4593-957F-684A1BF68E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" xr2:uid="{91839561-0953-4F79-B5DD-9805F25440BA}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="18514" windowHeight="10740" xr2:uid="{91839561-0953-4F79-B5DD-9805F25440BA}"/>
   </bookViews>
   <sheets>
     <sheet name="teen_screen_time_mock_dataset" sheetId="1" r:id="rId1"/>
@@ -68,25 +68,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Aptos Display"/>
+      <name val="等线 Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -94,7 +94,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,7 +102,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,35 +110,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +146,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,14 +154,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,14 +169,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +184,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,15 +192,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -926,9 +933,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -956,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -970,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -984,7 +991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1922,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2118,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2146,7 +2153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2342,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2398,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2482,7 +2489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -2762,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2846,7 +2853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -3056,7 +3063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3406,7 +3413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -3602,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -3630,7 +3637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -3742,7 +3749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -3854,7 +3861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -3952,7 +3959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +3973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -4120,7 +4127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -4372,7 +4379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -4526,7 +4533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -4582,7 +4589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -4610,7 +4617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -4652,7 +4659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -4680,7 +4687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -4708,7 +4715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -4778,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -4862,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -4876,7 +4883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -4918,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +4939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -4974,7 +4981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -5002,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -5030,7 +5037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -5044,7 +5051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -5072,7 +5079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -5086,7 +5093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -5100,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -5114,7 +5121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -5142,7 +5149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -5156,7 +5163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -5170,7 +5177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -5212,7 +5219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -5226,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -5240,7 +5247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -5338,7 +5345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -5380,7 +5387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -5478,7 +5485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -5492,7 +5499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -5520,7 +5527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -5576,7 +5583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -5590,7 +5597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>4</v>
       </c>
@@ -5632,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -5646,7 +5653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -5660,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>4</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -5758,7 +5765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -5772,7 +5779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -5786,7 +5793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -5800,7 +5807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +5863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -5954,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>11</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>11</v>
       </c>
@@ -5996,7 +6003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -6010,7 +6017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>11</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>11</v>
       </c>
@@ -6080,7 +6087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>11</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -6122,7 +6129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>11</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>11</v>
       </c>
@@ -6178,7 +6185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>11</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -6220,7 +6227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -6262,7 +6269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>4</v>
       </c>
@@ -6290,7 +6297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -6304,7 +6311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -6318,7 +6325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>11</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>4</v>
       </c>
@@ -6360,7 +6367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>11</v>
       </c>
@@ -6374,7 +6381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -6388,7 +6395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -6402,7 +6409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -6416,7 +6423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -6430,7 +6437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>11</v>
       </c>
@@ -6486,7 +6493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>11</v>
       </c>
@@ -6500,7 +6507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>4</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>4</v>
       </c>
@@ -6528,7 +6535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>4</v>
       </c>
@@ -6542,7 +6549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>11</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>4</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>4</v>
       </c>
@@ -6598,7 +6605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>11</v>
       </c>
@@ -6612,7 +6619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>4</v>
       </c>
@@ -6626,7 +6633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>11</v>
       </c>
@@ -6654,7 +6661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>4</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -6682,7 +6689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -6696,7 +6703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>11</v>
       </c>
@@ -6710,7 +6717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>11</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -6738,7 +6745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>11</v>
       </c>
@@ -6752,7 +6759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -6766,7 +6773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -6850,7 +6857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -6892,7 +6899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>11</v>
       </c>
@@ -6920,7 +6927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>11</v>
       </c>
@@ -6948,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>4</v>
       </c>
@@ -6962,7 +6969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>11</v>
       </c>
@@ -7018,7 +7025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>11</v>
       </c>
@@ -7032,7 +7039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>11</v>
       </c>
@@ -7046,7 +7053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>4</v>
       </c>
@@ -7060,7 +7067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -7074,7 +7081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>4</v>
       </c>
@@ -7088,7 +7095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -7102,7 +7109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>11</v>
       </c>
@@ -7116,7 +7123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -7158,7 +7165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -7172,7 +7179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -7186,7 +7193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -7200,7 +7207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>4</v>
       </c>
@@ -7214,7 +7221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7228,7 +7235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -7242,7 +7249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -7256,7 +7263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -7270,7 +7277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>4</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -7340,7 +7347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>11</v>
       </c>
@@ -7354,7 +7361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -7396,7 +7403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -7410,7 +7417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -7424,7 +7431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -7438,7 +7445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>4</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>11</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -7508,7 +7515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -7522,7 +7529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>4</v>
       </c>
@@ -7536,7 +7543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>11</v>
       </c>
@@ -7550,7 +7557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -7564,7 +7571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -7578,7 +7585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>11</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -7620,7 +7627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>11</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -7648,7 +7655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -7662,7 +7669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -7676,7 +7683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>11</v>
       </c>
@@ -7690,7 +7697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>11</v>
       </c>
@@ -7704,7 +7711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>11</v>
       </c>
@@ -7718,7 +7725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -7732,7 +7739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>11</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>4</v>
       </c>
@@ -7788,7 +7795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -7802,7 +7809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>11</v>
       </c>
@@ -7816,7 +7823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>11</v>
       </c>
@@ -7830,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>4</v>
       </c>
@@ -7858,7 +7865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>11</v>
       </c>
@@ -7872,7 +7879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>11</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -7900,7 +7907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -7928,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +7949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>11</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>11</v>
       </c>
@@ -7970,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>4</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>11</v>
       </c>
@@ -7998,7 +8005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -8012,7 +8019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -8026,7 +8033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -8040,7 +8047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>11</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -8082,7 +8089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>4</v>
       </c>
@@ -8096,7 +8103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -8110,7 +8117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -8124,7 +8131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -8138,7 +8145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -8152,7 +8159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -8166,7 +8173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>4</v>
       </c>
@@ -8180,7 +8187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -8222,7 +8229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -8236,7 +8243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -8250,7 +8257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>11</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>4</v>
       </c>
@@ -8278,7 +8285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -8292,7 +8299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -8306,7 +8313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>11</v>
       </c>
@@ -8334,7 +8341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>11</v>
       </c>
@@ -8348,7 +8355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -8362,7 +8369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>11</v>
       </c>
@@ -8390,7 +8397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -8404,7 +8411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>4</v>
       </c>
@@ -8418,7 +8425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -8432,7 +8439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>11</v>
       </c>
@@ -8446,7 +8453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -8460,7 +8467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>11</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>11</v>
       </c>
@@ -8502,7 +8509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>11</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>11</v>
       </c>
@@ -8530,7 +8537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>4</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>11</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -8600,7 +8607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>11</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -8628,7 +8635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>4</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -8656,7 +8663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -8698,7 +8705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -8712,7 +8719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>11</v>
       </c>
@@ -8726,7 +8733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>7</v>
       </c>
@@ -8740,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -8754,7 +8761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>4</v>
       </c>
@@ -8768,7 +8775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -8782,7 +8789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>4</v>
       </c>
@@ -8796,7 +8803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>11</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>7</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -8838,7 +8845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>4</v>
       </c>
@@ -8852,7 +8859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>11</v>
       </c>
@@ -8866,7 +8873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -8880,7 +8887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>4</v>
       </c>
@@ -8908,7 +8915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +8929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -8950,7 +8957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>4</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -8978,7 +8985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>11</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -9006,7 +9013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>11</v>
       </c>
@@ -9034,7 +9041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -9048,7 +9055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>11</v>
       </c>
@@ -9062,7 +9069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -9076,7 +9083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>4</v>
       </c>
@@ -9090,7 +9097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -9104,7 +9111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>4</v>
       </c>
@@ -9160,7 +9167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -9174,7 +9181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>4</v>
       </c>
@@ -9188,7 +9195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>11</v>
       </c>
@@ -9202,7 +9209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>4</v>
       </c>
@@ -9216,7 +9223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>4</v>
       </c>
@@ -9230,7 +9237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>11</v>
       </c>
@@ -9244,7 +9251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>4</v>
       </c>
@@ -9258,7 +9265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>7</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -9314,7 +9321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>4</v>
       </c>
@@ -9328,7 +9335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -9356,7 +9363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>4</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>7</v>
       </c>
@@ -9412,7 +9419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -9426,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>11</v>
       </c>
@@ -9440,7 +9447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>11</v>
       </c>
@@ -9454,7 +9461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>4</v>
       </c>
@@ -9468,7 +9475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>11</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>4</v>
       </c>
@@ -9496,7 +9503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>11</v>
       </c>
@@ -9510,7 +9517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>4</v>
       </c>
@@ -9538,7 +9545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>4</v>
       </c>
@@ -9552,7 +9559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -9566,7 +9573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>4</v>
       </c>
@@ -9580,7 +9587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>4</v>
       </c>
@@ -9594,7 +9601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>11</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>4</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>11</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>11</v>
       </c>
@@ -9664,7 +9671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>7</v>
       </c>
@@ -9678,7 +9685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>11</v>
       </c>
@@ -9706,7 +9713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>4</v>
       </c>
@@ -9720,7 +9727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>11</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>7</v>
       </c>
@@ -9748,7 +9755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>11</v>
       </c>
@@ -9762,7 +9769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>11</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>4</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>11</v>
       </c>
@@ -9818,7 +9825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>11</v>
       </c>
@@ -9832,7 +9839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -9846,7 +9853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -9860,7 +9867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -9874,7 +9881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>11</v>
       </c>
@@ -9888,7 +9895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>4</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>11</v>
       </c>
@@ -9944,7 +9951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +9965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>4</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>4</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -10000,7 +10007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -10014,7 +10021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>11</v>
       </c>
@@ -10028,7 +10035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>4</v>
       </c>
@@ -10042,7 +10049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>4</v>
       </c>
@@ -10056,7 +10063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>7</v>
       </c>
@@ -10070,7 +10077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>11</v>
       </c>
@@ -10084,7 +10091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -10098,7 +10105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>4</v>
       </c>
@@ -10112,7 +10119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>11</v>
       </c>
@@ -10126,7 +10133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>11</v>
       </c>
@@ -10140,7 +10147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>4</v>
       </c>
@@ -10154,7 +10161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>4</v>
       </c>
@@ -10168,7 +10175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>11</v>
       </c>
@@ -10182,7 +10189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>4</v>
       </c>
@@ -10196,7 +10203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -10224,7 +10231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>11</v>
       </c>
@@ -10238,7 +10245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>11</v>
       </c>
@@ -10252,7 +10259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>11</v>
       </c>
@@ -10266,7 +10273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>4</v>
       </c>
@@ -10294,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -10308,7 +10315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>4</v>
       </c>
@@ -10322,7 +10329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -10336,7 +10343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>4</v>
       </c>
@@ -10350,7 +10357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -10364,7 +10371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>11</v>
       </c>
@@ -10378,7 +10385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>7</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>4</v>
       </c>
@@ -10406,7 +10413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -10420,7 +10427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>7</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -10448,7 +10455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>11</v>
       </c>
@@ -10462,7 +10469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -10476,7 +10483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>11</v>
       </c>
@@ -10490,7 +10497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>11</v>
       </c>
@@ -10504,7 +10511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -10518,7 +10525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -10532,7 +10539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -10560,7 +10567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>11</v>
       </c>
@@ -10588,7 +10595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>4</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -10630,7 +10637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -10658,7 +10665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -10672,7 +10679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>11</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>4</v>
       </c>
@@ -10700,7 +10707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -10714,7 +10721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>7</v>
       </c>
@@ -10728,7 +10735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>11</v>
       </c>
@@ -10742,7 +10749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>4</v>
       </c>
@@ -10756,7 +10763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>4</v>
       </c>
@@ -10770,7 +10777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -10784,7 +10791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -10798,7 +10805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>11</v>
       </c>
@@ -10812,7 +10819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>11</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -10840,7 +10847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>4</v>
       </c>
@@ -10854,7 +10861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -10868,7 +10875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -10882,7 +10889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>11</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>11</v>
       </c>
@@ -10910,7 +10917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>11</v>
       </c>
@@ -10938,7 +10945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>11</v>
       </c>
@@ -10952,7 +10959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>11</v>
       </c>
@@ -10966,7 +10973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>11</v>
       </c>
@@ -10980,7 +10987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -10994,7 +11001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -11022,7 +11029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>11</v>
       </c>
@@ -11036,7 +11043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -11050,7 +11057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -11064,7 +11071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>7</v>
       </c>
@@ -11078,7 +11085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -11092,7 +11099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -11106,7 +11113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -11120,7 +11127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>7</v>
       </c>
@@ -11134,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -11148,7 +11155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>11</v>
       </c>
@@ -11162,7 +11169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>4</v>
       </c>
@@ -11176,7 +11183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -11190,7 +11197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>11</v>
       </c>
@@ -11204,7 +11211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>11</v>
       </c>
@@ -11218,7 +11225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>4</v>
       </c>
@@ -11232,7 +11239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -11260,7 +11267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -11274,7 +11281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>11</v>
       </c>
@@ -11288,7 +11295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>11</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>11</v>
       </c>
@@ -11316,7 +11323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>11</v>
       </c>
@@ -11330,7 +11337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>4</v>
       </c>
@@ -11344,7 +11351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -11358,7 +11365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>4</v>
       </c>
@@ -11386,7 +11393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -11400,7 +11407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>11</v>
       </c>
@@ -11414,7 +11421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -11428,7 +11435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>11</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>4</v>
       </c>
@@ -11456,7 +11463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -11470,7 +11477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>4</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -11498,7 +11505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>11</v>
       </c>
@@ -11512,7 +11519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>4</v>
       </c>
@@ -11526,7 +11533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -11540,7 +11547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>11</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -11568,7 +11575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -11582,7 +11589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -11596,7 +11603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -11610,7 +11617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>7</v>
       </c>
@@ -11624,7 +11631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>11</v>
       </c>
@@ -11638,7 +11645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>7</v>
       </c>
@@ -11652,7 +11659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>4</v>
       </c>
@@ -11666,7 +11673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>4</v>
       </c>
@@ -11680,7 +11687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -11694,7 +11701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -11708,7 +11715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>4</v>
       </c>
@@ -11722,7 +11729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>11</v>
       </c>
@@ -11736,7 +11743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -11750,7 +11757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -11764,7 +11771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -11778,7 +11785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -11792,7 +11799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>11</v>
       </c>
@@ -11806,7 +11813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -11820,7 +11827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -11834,7 +11841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -11848,7 +11855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -11862,7 +11869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>11</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>11</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -11946,7 +11953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>7</v>
       </c>
@@ -11960,7 +11967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>11</v>
       </c>
@@ -11974,7 +11981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -11988,7 +11995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>11</v>
       </c>
@@ -12002,7 +12009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>7</v>
       </c>
@@ -12016,7 +12023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -12030,7 +12037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -12044,7 +12051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -12058,7 +12065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>11</v>
       </c>
@@ -12072,7 +12079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -12086,7 +12093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>7</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>11</v>
       </c>
@@ -12114,7 +12121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -12128,7 +12135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -12142,7 +12149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>11</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>11</v>
       </c>
@@ -12170,7 +12177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>11</v>
       </c>
@@ -12184,7 +12191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>11</v>
       </c>
@@ -12198,7 +12205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>11</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>4</v>
       </c>
@@ -12226,7 +12233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>4</v>
       </c>
@@ -12240,7 +12247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>11</v>
       </c>
@@ -12254,7 +12261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -12268,7 +12275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>11</v>
       </c>
@@ -12282,7 +12289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -12296,7 +12303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>11</v>
       </c>
@@ -12310,7 +12317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>11</v>
       </c>
@@ -12324,7 +12331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -12338,7 +12345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -12352,7 +12359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -12366,7 +12373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -12380,7 +12387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>4</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -12408,7 +12415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>4</v>
       </c>
@@ -12422,7 +12429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -12436,7 +12443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -12450,7 +12457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>11</v>
       </c>
@@ -12464,7 +12471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>11</v>
       </c>
@@ -12478,7 +12485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -12492,7 +12499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -12506,7 +12513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -12520,7 +12527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>11</v>
       </c>
@@ -12534,7 +12541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>11</v>
       </c>
@@ -12548,7 +12555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>11</v>
       </c>
@@ -12562,7 +12569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>11</v>
       </c>
@@ -12576,7 +12583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>11</v>
       </c>
@@ -12590,7 +12597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>11</v>
       </c>
@@ -12604,7 +12611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>11</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>4</v>
       </c>
@@ -12632,7 +12639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>4</v>
       </c>
@@ -12646,7 +12653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>4</v>
       </c>
@@ -12660,7 +12667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>11</v>
       </c>
@@ -12688,7 +12695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -12702,7 +12709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>11</v>
       </c>
@@ -12716,7 +12723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -12730,7 +12737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>4</v>
       </c>
@@ -12744,7 +12751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>11</v>
       </c>
@@ -12758,7 +12765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>4</v>
       </c>
@@ -12772,7 +12779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>11</v>
       </c>
@@ -12786,7 +12793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>4</v>
       </c>
@@ -12800,7 +12807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -12814,7 +12821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -12842,7 +12849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>11</v>
       </c>
@@ -12856,7 +12863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>7</v>
       </c>
@@ -12870,7 +12877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>11</v>
       </c>
@@ -12884,7 +12891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -12898,7 +12905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -12912,7 +12919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>11</v>
       </c>
@@ -12926,7 +12933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>11</v>
       </c>
@@ -12940,7 +12947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>7</v>
       </c>
@@ -12954,7 +12961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>11</v>
       </c>
@@ -12968,7 +12975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -12982,7 +12989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>11</v>
       </c>
@@ -12996,7 +13003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>4</v>
       </c>
@@ -13010,7 +13017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>4</v>
       </c>
@@ -13024,7 +13031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>4</v>
       </c>
@@ -13038,7 +13045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>4</v>
       </c>
@@ -13052,7 +13059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>4</v>
       </c>
@@ -13066,7 +13073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>7</v>
       </c>
@@ -13080,7 +13087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>4</v>
       </c>
@@ -13094,7 +13101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>4</v>
       </c>
@@ -13108,7 +13115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>4</v>
       </c>
@@ -13122,7 +13129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>4</v>
       </c>
@@ -13136,7 +13143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>11</v>
       </c>
@@ -13150,7 +13157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -13164,7 +13171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>4</v>
       </c>
@@ -13178,7 +13185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -13192,7 +13199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>4</v>
       </c>
@@ -13206,7 +13213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -13220,7 +13227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>11</v>
       </c>
@@ -13234,7 +13241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -13248,7 +13255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>11</v>
       </c>
@@ -13262,7 +13269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>4</v>
       </c>
@@ -13276,7 +13283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>4</v>
       </c>
@@ -13290,7 +13297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -13304,7 +13311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -13318,7 +13325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>11</v>
       </c>
@@ -13332,7 +13339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>11</v>
       </c>
@@ -13346,7 +13353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -13360,7 +13367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>11</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -13388,7 +13395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>11</v>
       </c>
@@ -13402,7 +13409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>7</v>
       </c>
@@ -13416,7 +13423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -13430,7 +13437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -13444,7 +13451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>11</v>
       </c>
@@ -13458,7 +13465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>11</v>
       </c>
@@ -13472,7 +13479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>11</v>
       </c>
@@ -13486,7 +13493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>11</v>
       </c>
@@ -13514,7 +13521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>11</v>
       </c>
@@ -13528,7 +13535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -13542,7 +13549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>4</v>
       </c>
@@ -13556,7 +13563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -13570,7 +13577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>11</v>
       </c>
@@ -13584,7 +13591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -13598,7 +13605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>4</v>
       </c>
@@ -13612,7 +13619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>7</v>
       </c>
@@ -13626,7 +13633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>11</v>
       </c>
@@ -13640,7 +13647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>4</v>
       </c>
@@ -13654,7 +13661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>11</v>
       </c>
@@ -13668,7 +13675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>4</v>
       </c>
@@ -13682,7 +13689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>4</v>
       </c>
@@ -13696,7 +13703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>7</v>
       </c>
@@ -13710,7 +13717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -13724,7 +13731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>11</v>
       </c>
@@ -13738,7 +13745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -13752,7 +13759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -13766,7 +13773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>4</v>
       </c>
@@ -13780,7 +13787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -13794,7 +13801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>4</v>
       </c>
@@ -13808,7 +13815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>4</v>
       </c>
@@ -13822,7 +13829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>4</v>
       </c>
@@ -13836,7 +13843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>11</v>
       </c>
@@ -13850,7 +13857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>11</v>
       </c>
@@ -13864,7 +13871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>11</v>
       </c>
@@ -13878,7 +13885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>4</v>
       </c>
@@ -13892,7 +13899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>11</v>
       </c>
@@ -13906,7 +13913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>11</v>
       </c>
@@ -13920,7 +13927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -13934,7 +13941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>11</v>
       </c>
@@ -13948,7 +13955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>11</v>
       </c>
@@ -13962,7 +13969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>4</v>
       </c>
@@ -13976,7 +13983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>4</v>
       </c>
@@ -13990,7 +13997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>4</v>
       </c>
@@ -14004,7 +14011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>4</v>
       </c>
@@ -14018,7 +14025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>4</v>
       </c>
@@ -14032,7 +14039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>4</v>
       </c>
@@ -14046,7 +14053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>11</v>
       </c>
@@ -14060,7 +14067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>4</v>
       </c>
@@ -14074,7 +14081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>4</v>
       </c>
@@ -14088,7 +14095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -14102,7 +14109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>11</v>
       </c>
@@ -14116,7 +14123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>11</v>
       </c>
@@ -14130,7 +14137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>11</v>
       </c>
@@ -14144,7 +14151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>4</v>
       </c>
@@ -14158,7 +14165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>4</v>
       </c>
@@ -14172,7 +14179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>4</v>
       </c>
@@ -14186,7 +14193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -14200,7 +14207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>4</v>
       </c>
@@ -14214,7 +14221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>7</v>
       </c>
@@ -14228,7 +14235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>11</v>
       </c>
@@ -14242,7 +14249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>4</v>
       </c>
@@ -14256,7 +14263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -14270,7 +14277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -14284,7 +14291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>4</v>
       </c>
@@ -14298,7 +14305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>11</v>
       </c>
@@ -14312,7 +14319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>11</v>
       </c>
@@ -14326,7 +14333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>11</v>
       </c>
@@ -14340,7 +14347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -14354,7 +14361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -14368,7 +14375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -14382,7 +14389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -14396,7 +14403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>11</v>
       </c>
@@ -14410,7 +14417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>4</v>
       </c>
@@ -14424,7 +14431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>7</v>
       </c>
@@ -14438,7 +14445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -14452,7 +14459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>11</v>
       </c>
@@ -14466,7 +14473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>4</v>
       </c>
@@ -14480,7 +14487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>4</v>
       </c>
@@ -14494,7 +14501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>11</v>
       </c>
@@ -14508,7 +14515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>11</v>
       </c>
@@ -14522,7 +14529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>4</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>7</v>
       </c>
@@ -14550,7 +14557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
         <v>4</v>
       </c>
@@ -14564,7 +14571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
         <v>11</v>
       </c>
@@ -14578,7 +14585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
         <v>7</v>
       </c>
@@ -14592,7 +14599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -14606,7 +14613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>11</v>
       </c>
@@ -14620,7 +14627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>11</v>
       </c>
@@ -14634,7 +14641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>11</v>
       </c>
@@ -14648,7 +14655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
         <v>4</v>
       </c>
@@ -14662,7 +14669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
         <v>4</v>
       </c>
@@ -14676,7 +14683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -14690,7 +14697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>11</v>
       </c>
@@ -14704,7 +14711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -14718,7 +14725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -14732,7 +14739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -14746,7 +14753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -14760,7 +14767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
         <v>11</v>
       </c>
@@ -14774,7 +14781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
         <v>11</v>
       </c>
@@ -14802,7 +14809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
         <v>11</v>
       </c>
@@ -14816,7 +14823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
         <v>4</v>
       </c>
@@ -14830,7 +14837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
         <v>11</v>
       </c>
@@ -14844,7 +14851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
         <v>4</v>
       </c>
@@ -14858,7 +14865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
         <v>11</v>
       </c>
@@ -14872,7 +14879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
         <v>11</v>
       </c>
@@ -14886,7 +14893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
         <v>11</v>
       </c>
@@ -14900,7 +14907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
         <v>4</v>
       </c>
@@ -14914,7 +14921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
         <v>4</v>
       </c>
@@ -14928,7 +14935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -14943,6 +14950,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>